--- a/Results/Bayes_TUGT_summary.xlsx
+++ b/Results/Bayes_TUGT_summary.xlsx
@@ -416,31 +416,31 @@
         </is>
       </c>
       <c r="B2">
-        <v>-1.322</v>
+        <v>-0.032</v>
       </c>
       <c r="C2">
-        <v>1.49</v>
+        <v>0.078</v>
       </c>
       <c r="D2">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.008999999999999999</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-4.265</v>
+        <v>-0.185</v>
       </c>
       <c r="G2">
-        <v>-2.298</v>
+        <v>-0.083</v>
       </c>
       <c r="H2">
-        <v>-1.32</v>
+        <v>-0.031</v>
       </c>
       <c r="I2">
-        <v>-0.344</v>
+        <v>0.02</v>
       </c>
       <c r="J2">
-        <v>1.618</v>
+        <v>0.122</v>
       </c>
     </row>
     <row r="3">
@@ -450,31 +450,31 @@
         </is>
       </c>
       <c r="B3">
-        <v>-1.173</v>
+        <v>0.105</v>
       </c>
       <c r="C3">
-        <v>1.49</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="D3">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.008999999999999999</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>-4.111</v>
+        <v>-0.032</v>
       </c>
       <c r="G3">
-        <v>-2.151</v>
+        <v>0.06</v>
       </c>
       <c r="H3">
-        <v>-1.174</v>
+        <v>0.105</v>
       </c>
       <c r="I3">
-        <v>-0.197</v>
+        <v>0.15</v>
       </c>
       <c r="J3">
-        <v>1.774</v>
+        <v>0.241</v>
       </c>
     </row>
     <row r="4">
@@ -484,31 +484,31 @@
         </is>
       </c>
       <c r="B4">
-        <v>-2.086</v>
+        <v>0.046</v>
       </c>
       <c r="C4">
-        <v>1.58</v>
+        <v>0.075</v>
       </c>
       <c r="D4">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>-5.198</v>
+        <v>-0.103</v>
       </c>
       <c r="G4">
-        <v>-3.126</v>
+        <v>-0.004</v>
       </c>
       <c r="H4">
-        <v>-2.084</v>
+        <v>0.046</v>
       </c>
       <c r="I4">
-        <v>-1.046</v>
+        <v>0.096</v>
       </c>
       <c r="J4">
-        <v>1.034</v>
+        <v>0.195</v>
       </c>
     </row>
     <row r="5">
@@ -518,31 +518,31 @@
         </is>
       </c>
       <c r="B5">
-        <v>-1.267</v>
+        <v>0.025</v>
       </c>
       <c r="C5">
-        <v>1.489</v>
+        <v>0.068</v>
       </c>
       <c r="D5">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.008999999999999999</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>-4.198</v>
+        <v>-0.109</v>
       </c>
       <c r="G5">
-        <v>-2.249</v>
+        <v>-0.02</v>
       </c>
       <c r="H5">
-        <v>-1.269</v>
+        <v>0.025</v>
       </c>
       <c r="I5">
-        <v>-0.289</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J5">
-        <v>1.685</v>
+        <v>0.158</v>
       </c>
     </row>
     <row r="6">
@@ -552,25 +552,25 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.8179999999999999</v>
+        <v>0.339</v>
       </c>
       <c r="C6">
-        <v>0.385</v>
+        <v>0.473</v>
       </c>
       <c r="D6">
         <v>0.001</v>
       </c>
       <c r="E6">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -586,16 +586,16 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.79</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="C7">
-        <v>0.407</v>
+        <v>0.244</v>
       </c>
       <c r="D7">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.909</v>
+        <v>0.733</v>
       </c>
       <c r="C8">
-        <v>0.287</v>
+        <v>0.442</v>
       </c>
       <c r="D8">
         <v>0.001</v>
@@ -635,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -654,10 +654,10 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.8080000000000001</v>
+        <v>0.646</v>
       </c>
       <c r="C9">
-        <v>0.394</v>
+        <v>0.478</v>
       </c>
       <c r="D9">
         <v>0.001</v>
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -688,16 +688,16 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.5600000000000001</v>
+        <v>0.382</v>
       </c>
       <c r="C10">
-        <v>0.496</v>
+        <v>0.486</v>
       </c>
       <c r="D10">
         <v>0.001</v>
       </c>
       <c r="E10">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -722,16 +722,16 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.535</v>
+        <v>0.627</v>
       </c>
       <c r="C11">
-        <v>0.499</v>
+        <v>0.483</v>
       </c>
       <c r="D11">
         <v>0.001</v>
       </c>
       <c r="E11">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -756,10 +756,10 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.61</v>
+        <v>0.468</v>
       </c>
       <c r="C12">
-        <v>0.488</v>
+        <v>0.499</v>
       </c>
       <c r="D12">
         <v>0.001</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -790,16 +790,16 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.554</v>
+        <v>0.267</v>
       </c>
       <c r="C13">
-        <v>0.497</v>
+        <v>0.443</v>
       </c>
       <c r="D13">
         <v>0.001</v>
       </c>
       <c r="E13">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -808,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -824,16 +824,16 @@
         </is>
       </c>
       <c r="B14">
-        <v>0.576</v>
+        <v>0.206</v>
       </c>
       <c r="C14">
-        <v>0.494</v>
+        <v>0.404</v>
       </c>
       <c r="D14">
         <v>0.001</v>
       </c>
       <c r="E14">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -858,16 +858,16 @@
         </is>
       </c>
       <c r="B15">
-        <v>0.552</v>
+        <v>0.332</v>
       </c>
       <c r="C15">
-        <v>0.497</v>
+        <v>0.471</v>
       </c>
       <c r="D15">
         <v>0.001</v>
       </c>
       <c r="E15">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B16">
-        <v>0.62</v>
+        <v>0.375</v>
       </c>
       <c r="C16">
-        <v>0.485</v>
+        <v>0.484</v>
       </c>
       <c r="D16">
         <v>0.001</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -926,16 +926,16 @@
         </is>
       </c>
       <c r="B17">
-        <v>0.569</v>
+        <v>0.19</v>
       </c>
       <c r="C17">
-        <v>0.495</v>
+        <v>0.392</v>
       </c>
       <c r="D17">
         <v>0.001</v>
       </c>
       <c r="E17">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -960,16 +960,16 @@
         </is>
       </c>
       <c r="B18">
-        <v>0.578</v>
+        <v>0.047</v>
       </c>
       <c r="C18">
-        <v>0.494</v>
+        <v>0.211</v>
       </c>
       <c r="D18">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -978,10 +978,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -994,16 +994,16 @@
         </is>
       </c>
       <c r="B19">
-        <v>0.552</v>
+        <v>0.45</v>
       </c>
       <c r="C19">
-        <v>0.497</v>
+        <v>0.498</v>
       </c>
       <c r="D19">
         <v>0.001</v>
       </c>
       <c r="E19">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1028,10 +1028,10 @@
         </is>
       </c>
       <c r="B20">
-        <v>0.61</v>
+        <v>0.539</v>
       </c>
       <c r="C20">
-        <v>0.488</v>
+        <v>0.498</v>
       </c>
       <c r="D20">
         <v>0.001</v>
@@ -1062,16 +1062,16 @@
         </is>
       </c>
       <c r="B21">
-        <v>0.5669999999999999</v>
+        <v>0.227</v>
       </c>
       <c r="C21">
-        <v>0.496</v>
+        <v>0.419</v>
       </c>
       <c r="D21">
         <v>0.001</v>
       </c>
       <c r="E21">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1080,10 +1080,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1096,16 +1096,16 @@
         </is>
       </c>
       <c r="B22">
-        <v>0.542</v>
+        <v>0.405</v>
       </c>
       <c r="C22">
-        <v>0.498</v>
+        <v>0.491</v>
       </c>
       <c r="D22">
         <v>0.001</v>
       </c>
       <c r="E22">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B23">
-        <v>0.516</v>
+        <v>0.792</v>
       </c>
       <c r="C23">
-        <v>0.5</v>
+        <v>0.406</v>
       </c>
       <c r="D23">
         <v>0.001</v>
       </c>
       <c r="E23">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -1164,10 +1164,10 @@
         </is>
       </c>
       <c r="B24">
-        <v>0.607</v>
+        <v>0.433</v>
       </c>
       <c r="C24">
-        <v>0.488</v>
+        <v>0.495</v>
       </c>
       <c r="D24">
         <v>0.001</v>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -1198,16 +1198,16 @@
         </is>
       </c>
       <c r="B25">
-        <v>0.53</v>
+        <v>0.668</v>
       </c>
       <c r="C25">
-        <v>0.499</v>
+        <v>0.471</v>
       </c>
       <c r="D25">
         <v>0.001</v>
       </c>
       <c r="E25">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1232,16 +1232,16 @@
         </is>
       </c>
       <c r="B26">
-        <v>0.576</v>
+        <v>0.28</v>
       </c>
       <c r="C26">
-        <v>0.494</v>
+        <v>0.449</v>
       </c>
       <c r="D26">
         <v>0.001</v>
       </c>
       <c r="E26">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="B27">
-        <v>0.55</v>
+        <v>0.554</v>
       </c>
       <c r="C27">
         <v>0.497</v>
@@ -1300,16 +1300,16 @@
         </is>
       </c>
       <c r="B28">
-        <v>0.746</v>
+        <v>0.642</v>
       </c>
       <c r="C28">
-        <v>0.435</v>
+        <v>0.479</v>
       </c>
       <c r="D28">
         <v>0.001</v>
       </c>
       <c r="E28">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1334,16 +1334,16 @@
         </is>
       </c>
       <c r="B29">
-        <v>0.569</v>
+        <v>0.195</v>
       </c>
       <c r="C29">
-        <v>0.495</v>
+        <v>0.396</v>
       </c>
       <c r="D29">
         <v>0.001</v>
       </c>
       <c r="E29">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1352,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -1368,22 +1368,22 @@
         </is>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0.529</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>0.499</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -1402,22 +1402,22 @@
         </is>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0.739</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>0.439</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -1436,25 +1436,25 @@
         </is>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0.372</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>0.483</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -1470,22 +1470,22 @@
         </is>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0.523</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>0.499</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -1504,16 +1504,16 @@
         </is>
       </c>
       <c r="B34">
-        <v>0.553</v>
+        <v>0.389</v>
       </c>
       <c r="C34">
-        <v>0.497</v>
+        <v>0.488</v>
       </c>
       <c r="D34">
         <v>0.001</v>
       </c>
       <c r="E34">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -1538,22 +1538,22 @@
         </is>
       </c>
       <c r="B35">
-        <v>0.526</v>
+        <v>0.806</v>
       </c>
       <c r="C35">
-        <v>0.499</v>
+        <v>0.395</v>
       </c>
       <c r="D35">
         <v>0.001</v>
       </c>
       <c r="E35">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -1572,13 +1572,13 @@
         </is>
       </c>
       <c r="B36">
-        <v>0.964</v>
+        <v>0.457</v>
       </c>
       <c r="C36">
-        <v>0.187</v>
+        <v>0.498</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="E36">
         <v>0.001</v>
@@ -1587,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B37">
-        <v>0.543</v>
+        <v>0.518</v>
       </c>
       <c r="C37">
-        <v>0.498</v>
+        <v>0.5</v>
       </c>
       <c r="D37">
         <v>0.001</v>
       </c>
       <c r="E37">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1640,22 +1640,22 @@
         </is>
       </c>
       <c r="B38">
-        <v>0.516</v>
+        <v>0.904</v>
       </c>
       <c r="C38">
-        <v>0.5</v>
+        <v>0.295</v>
       </c>
       <c r="D38">
         <v>0.001</v>
       </c>
       <c r="E38">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -1674,25 +1674,25 @@
         </is>
       </c>
       <c r="B39">
-        <v>0.493</v>
+        <v>0.929</v>
       </c>
       <c r="C39">
-        <v>0.5</v>
+        <v>0.256</v>
       </c>
       <c r="D39">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -1708,10 +1708,10 @@
         </is>
       </c>
       <c r="B40">
-        <v>0.592</v>
+        <v>0.59</v>
       </c>
       <c r="C40">
-        <v>0.491</v>
+        <v>0.492</v>
       </c>
       <c r="D40">
         <v>0.001</v>
@@ -1742,22 +1742,22 @@
         </is>
       </c>
       <c r="B41">
-        <v>0.509</v>
+        <v>0.85</v>
       </c>
       <c r="C41">
-        <v>0.5</v>
+        <v>0.358</v>
       </c>
       <c r="D41">
         <v>0.001</v>
       </c>
       <c r="E41">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -1776,22 +1776,22 @@
         </is>
       </c>
       <c r="B42">
-        <v>0.507</v>
+        <v>0.85</v>
       </c>
       <c r="C42">
-        <v>0.5</v>
+        <v>0.357</v>
       </c>
       <c r="D42">
         <v>0.001</v>
       </c>
       <c r="E42">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -1810,25 +1810,25 @@
         </is>
       </c>
       <c r="B43">
-        <v>0.482</v>
+        <v>0.974</v>
       </c>
       <c r="C43">
-        <v>0.5</v>
+        <v>0.159</v>
       </c>
       <c r="D43">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -1844,10 +1844,10 @@
         </is>
       </c>
       <c r="B44">
-        <v>0.582</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="C44">
-        <v>0.493</v>
+        <v>0.464</v>
       </c>
       <c r="D44">
         <v>0.001</v>
@@ -1878,25 +1878,25 @@
         </is>
       </c>
       <c r="B45">
-        <v>0.499</v>
+        <v>0.91</v>
       </c>
       <c r="C45">
-        <v>0.5</v>
+        <v>0.286</v>
       </c>
       <c r="D45">
         <v>0.001</v>
       </c>
       <c r="E45">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -1912,10 +1912,10 @@
         </is>
       </c>
       <c r="B46">
-        <v>0.44</v>
+        <v>0.584</v>
       </c>
       <c r="C46">
-        <v>0.496</v>
+        <v>0.493</v>
       </c>
       <c r="D46">
         <v>0.001</v>
@@ -1930,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -1946,25 +1946,25 @@
         </is>
       </c>
       <c r="B47">
-        <v>0.411</v>
+        <v>0.998</v>
       </c>
       <c r="C47">
-        <v>0.492</v>
+        <v>0.046</v>
       </c>
       <c r="D47">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -1980,13 +1980,13 @@
         </is>
       </c>
       <c r="B48">
-        <v>0.522</v>
+        <v>0.958</v>
       </c>
       <c r="C48">
-        <v>0.499</v>
+        <v>0.2</v>
       </c>
       <c r="D48">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>0.001</v>
@@ -1995,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -2014,25 +2014,25 @@
         </is>
       </c>
       <c r="B49">
-        <v>0.424</v>
+        <v>0.997</v>
       </c>
       <c r="C49">
-        <v>0.494</v>
+        <v>0.055</v>
       </c>
       <c r="D49">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -2048,16 +2048,16 @@
         </is>
       </c>
       <c r="B50">
-        <v>0.5659999999999999</v>
+        <v>0.346</v>
       </c>
       <c r="C50">
-        <v>0.496</v>
+        <v>0.476</v>
       </c>
       <c r="D50">
         <v>0.001</v>
       </c>
       <c r="E50">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -2082,16 +2082,16 @@
         </is>
       </c>
       <c r="B51">
-        <v>0.542</v>
+        <v>0.573</v>
       </c>
       <c r="C51">
-        <v>0.498</v>
+        <v>0.495</v>
       </c>
       <c r="D51">
         <v>0.001</v>
       </c>
       <c r="E51">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -2116,10 +2116,10 @@
         </is>
       </c>
       <c r="B52">
-        <v>0.608</v>
+        <v>0.539</v>
       </c>
       <c r="C52">
-        <v>0.488</v>
+        <v>0.499</v>
       </c>
       <c r="D52">
         <v>0.001</v>
@@ -2150,16 +2150,16 @@
         </is>
       </c>
       <c r="B53">
-        <v>0.5590000000000001</v>
+        <v>0.303</v>
       </c>
       <c r="C53">
-        <v>0.496</v>
+        <v>0.46</v>
       </c>
       <c r="D53">
         <v>0.001</v>
       </c>
       <c r="E53">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -2168,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -2184,16 +2184,16 @@
         </is>
       </c>
       <c r="B54">
-        <v>0.536</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="C54">
-        <v>0.499</v>
+        <v>0.463</v>
       </c>
       <c r="D54">
         <v>0.001</v>
       </c>
       <c r="E54">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         </is>
       </c>
       <c r="B55">
-        <v>0.51</v>
+        <v>0.894</v>
       </c>
       <c r="C55">
-        <v>0.5</v>
+        <v>0.308</v>
       </c>
       <c r="D55">
         <v>0.001</v>
       </c>
       <c r="E55">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -2252,10 +2252,10 @@
         </is>
       </c>
       <c r="B56">
-        <v>0.586</v>
+        <v>0.787</v>
       </c>
       <c r="C56">
-        <v>0.493</v>
+        <v>0.41</v>
       </c>
       <c r="D56">
         <v>0.001</v>
@@ -2267,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -2286,16 +2286,16 @@
         </is>
       </c>
       <c r="B57">
-        <v>0.528</v>
+        <v>0.673</v>
       </c>
       <c r="C57">
-        <v>0.499</v>
+        <v>0.469</v>
       </c>
       <c r="D57">
         <v>0.001</v>
       </c>
       <c r="E57">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -2320,16 +2320,16 @@
         </is>
       </c>
       <c r="B58">
-        <v>0.549</v>
+        <v>0.105</v>
       </c>
       <c r="C58">
-        <v>0.498</v>
+        <v>0.307</v>
       </c>
       <c r="D58">
         <v>0.001</v>
       </c>
       <c r="E58">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -2338,10 +2338,10 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -2354,16 +2354,16 @@
         </is>
       </c>
       <c r="B59">
-        <v>0.523</v>
+        <v>0.729</v>
       </c>
       <c r="C59">
-        <v>0.499</v>
+        <v>0.445</v>
       </c>
       <c r="D59">
         <v>0.001</v>
       </c>
       <c r="E59">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -2388,10 +2388,10 @@
         </is>
       </c>
       <c r="B60">
-        <v>0.607</v>
+        <v>0.443</v>
       </c>
       <c r="C60">
-        <v>0.488</v>
+        <v>0.497</v>
       </c>
       <c r="D60">
         <v>0.001</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60">
         <v>1</v>
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="B61">
-        <v>0.537</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="C61">
-        <v>0.499</v>
+        <v>0.496</v>
       </c>
       <c r="D61">
         <v>0.001</v>
       </c>
       <c r="E61">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -2456,16 +2456,16 @@
         </is>
       </c>
       <c r="B62">
-        <v>0.551</v>
+        <v>0.424</v>
       </c>
       <c r="C62">
-        <v>0.497</v>
+        <v>0.494</v>
       </c>
       <c r="D62">
         <v>0.001</v>
       </c>
       <c r="E62">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
         <v>1</v>
@@ -2490,22 +2490,22 @@
         </is>
       </c>
       <c r="B63">
-        <v>0.525</v>
+        <v>0.793</v>
       </c>
       <c r="C63">
-        <v>0.499</v>
+        <v>0.405</v>
       </c>
       <c r="D63">
         <v>0.001</v>
       </c>
       <c r="E63">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -2524,10 +2524,10 @@
         </is>
       </c>
       <c r="B64">
-        <v>0.597</v>
+        <v>0.661</v>
       </c>
       <c r="C64">
-        <v>0.49</v>
+        <v>0.473</v>
       </c>
       <c r="D64">
         <v>0.001</v>
@@ -2558,16 +2558,16 @@
         </is>
       </c>
       <c r="B65">
-        <v>0.542</v>
+        <v>0.482</v>
       </c>
       <c r="C65">
-        <v>0.498</v>
+        <v>0.5</v>
       </c>
       <c r="D65">
         <v>0.001</v>
       </c>
       <c r="E65">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65">
         <v>1</v>
@@ -2592,16 +2592,16 @@
         </is>
       </c>
       <c r="B66">
-        <v>0.535</v>
+        <v>0.323</v>
       </c>
       <c r="C66">
-        <v>0.499</v>
+        <v>0.468</v>
       </c>
       <c r="D66">
         <v>0.001</v>
       </c>
       <c r="E66">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2610,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66">
         <v>1</v>
@@ -2626,22 +2626,22 @@
         </is>
       </c>
       <c r="B67">
-        <v>0.507</v>
+        <v>0.9</v>
       </c>
       <c r="C67">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D67">
         <v>0.001</v>
       </c>
       <c r="E67">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -2660,10 +2660,10 @@
         </is>
       </c>
       <c r="B68">
-        <v>0.582</v>
+        <v>0.83</v>
       </c>
       <c r="C68">
-        <v>0.493</v>
+        <v>0.376</v>
       </c>
       <c r="D68">
         <v>0.001</v>
@@ -2675,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="B69">
-        <v>0.523</v>
+        <v>0.785</v>
       </c>
       <c r="C69">
-        <v>0.499</v>
+        <v>0.411</v>
       </c>
       <c r="D69">
         <v>0.001</v>
       </c>
       <c r="E69">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -2728,16 +2728,16 @@
         </is>
       </c>
       <c r="B70">
-        <v>0.571</v>
+        <v>0.209</v>
       </c>
       <c r="C70">
-        <v>0.495</v>
+        <v>0.407</v>
       </c>
       <c r="D70">
         <v>0.001</v>
       </c>
       <c r="E70">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -2746,10 +2746,10 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -2762,10 +2762,10 @@
         </is>
       </c>
       <c r="B71">
-        <v>0.549</v>
+        <v>0.385</v>
       </c>
       <c r="C71">
-        <v>0.498</v>
+        <v>0.487</v>
       </c>
       <c r="D71">
         <v>0.001</v>
@@ -2780,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <v>1</v>
@@ -2796,10 +2796,10 @@
         </is>
       </c>
       <c r="B72">
-        <v>0.618</v>
+        <v>0.362</v>
       </c>
       <c r="C72">
-        <v>0.486</v>
+        <v>0.481</v>
       </c>
       <c r="D72">
         <v>0.001</v>
@@ -2814,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>1</v>
@@ -2830,16 +2830,16 @@
         </is>
       </c>
       <c r="B73">
-        <v>0.5649999999999999</v>
+        <v>0.198</v>
       </c>
       <c r="C73">
-        <v>0.496</v>
+        <v>0.398</v>
       </c>
       <c r="D73">
         <v>0.001</v>
       </c>
       <c r="E73">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -2848,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -2864,22 +2864,22 @@
         </is>
       </c>
       <c r="B74">
-        <v>0.527</v>
+        <v>0.772</v>
       </c>
       <c r="C74">
-        <v>0.499</v>
+        <v>0.419</v>
       </c>
       <c r="D74">
         <v>0.001</v>
       </c>
       <c r="E74">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -2898,22 +2898,22 @@
         </is>
       </c>
       <c r="B75">
-        <v>0.505</v>
+        <v>0.879</v>
       </c>
       <c r="C75">
-        <v>0.5</v>
+        <v>0.326</v>
       </c>
       <c r="D75">
         <v>0.001</v>
       </c>
       <c r="E75">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -2932,16 +2932,16 @@
         </is>
       </c>
       <c r="B76">
-        <v>0.603</v>
+        <v>0.431</v>
       </c>
       <c r="C76">
-        <v>0.489</v>
+        <v>0.495</v>
       </c>
       <c r="D76">
         <v>0.001</v>
       </c>
       <c r="E76">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <v>1</v>
@@ -2966,22 +2966,22 @@
         </is>
       </c>
       <c r="B77">
-        <v>0.519</v>
+        <v>0.785</v>
       </c>
       <c r="C77">
-        <v>0.5</v>
+        <v>0.411</v>
       </c>
       <c r="D77">
         <v>0.001</v>
       </c>
       <c r="E77">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F77">
         <v>0</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -3000,16 +3000,16 @@
         </is>
       </c>
       <c r="B78">
-        <v>0.5659999999999999</v>
+        <v>0.315</v>
       </c>
       <c r="C78">
-        <v>0.496</v>
+        <v>0.465</v>
       </c>
       <c r="D78">
         <v>0.001</v>
       </c>
       <c r="E78">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
         <v>1</v>
@@ -3034,10 +3034,10 @@
         </is>
       </c>
       <c r="B79">
-        <v>0.543</v>
+        <v>0.384</v>
       </c>
       <c r="C79">
-        <v>0.498</v>
+        <v>0.486</v>
       </c>
       <c r="D79">
         <v>0.001</v>
@@ -3052,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -3068,10 +3068,10 @@
         </is>
       </c>
       <c r="B80">
-        <v>0.607</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="C80">
-        <v>0.488</v>
+        <v>0.496</v>
       </c>
       <c r="D80">
         <v>0.001</v>
@@ -3102,16 +3102,16 @@
         </is>
       </c>
       <c r="B81">
-        <v>0.5570000000000001</v>
+        <v>0.329</v>
       </c>
       <c r="C81">
-        <v>0.497</v>
+        <v>0.47</v>
       </c>
       <c r="D81">
         <v>0.001</v>
       </c>
       <c r="E81">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81">
         <v>1</v>
@@ -3136,16 +3136,16 @@
         </is>
       </c>
       <c r="B82">
-        <v>0.57</v>
+        <v>0.344</v>
       </c>
       <c r="C82">
-        <v>0.495</v>
+        <v>0.475</v>
       </c>
       <c r="D82">
         <v>0.001</v>
       </c>
       <c r="E82">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -3154,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82">
         <v>1</v>
@@ -3170,16 +3170,16 @@
         </is>
       </c>
       <c r="B83">
-        <v>0.546</v>
+        <v>0.491</v>
       </c>
       <c r="C83">
-        <v>0.498</v>
+        <v>0.5</v>
       </c>
       <c r="D83">
         <v>0.001</v>
       </c>
       <c r="E83">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -3188,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83">
         <v>1</v>
@@ -3204,10 +3204,10 @@
         </is>
       </c>
       <c r="B84">
-        <v>0.602</v>
+        <v>0.661</v>
       </c>
       <c r="C84">
-        <v>0.489</v>
+        <v>0.473</v>
       </c>
       <c r="D84">
         <v>0.001</v>
@@ -3238,16 +3238,16 @@
         </is>
       </c>
       <c r="B85">
-        <v>0.5620000000000001</v>
+        <v>0.253</v>
       </c>
       <c r="C85">
-        <v>0.496</v>
+        <v>0.434</v>
       </c>
       <c r="D85">
         <v>0.001</v>
       </c>
       <c r="E85">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -3256,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85">
         <v>1</v>
@@ -3272,16 +3272,16 @@
         </is>
       </c>
       <c r="B86">
-        <v>0.53</v>
+        <v>0.544</v>
       </c>
       <c r="C86">
-        <v>0.499</v>
+        <v>0.498</v>
       </c>
       <c r="D86">
         <v>0.001</v>
       </c>
       <c r="E86">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -3306,22 +3306,22 @@
         </is>
       </c>
       <c r="B87">
-        <v>0.507</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="C87">
-        <v>0.5</v>
+        <v>0.39</v>
       </c>
       <c r="D87">
         <v>0.001</v>
       </c>
       <c r="E87">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -3340,10 +3340,10 @@
         </is>
       </c>
       <c r="B88">
-        <v>0.575</v>
+        <v>0.882</v>
       </c>
       <c r="C88">
-        <v>0.494</v>
+        <v>0.323</v>
       </c>
       <c r="D88">
         <v>0.001</v>
@@ -3355,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -3374,16 +3374,16 @@
         </is>
       </c>
       <c r="B89">
-        <v>0.522</v>
+        <v>0.738</v>
       </c>
       <c r="C89">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="D89">
         <v>0.001</v>
       </c>
       <c r="E89">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F89">
         <v>0</v>
